--- a/src/main/resources/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-炼焦日报表（班日、月）报表设计.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="1.炼焦日报表（班日、月）" sheetId="1" r:id="rId1"/>
     <sheet name="_lianjaorb_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_kjjunzhi_day_shift" sheetId="3" r:id="rId3"/>
+    <sheet name="_causek_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <r>
       <rPr>
@@ -308,10 +310,10 @@
     <t>CK67_W_CI_BFGCV_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_6KAvg_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_6KPea_10m_evt</t>
+    <t>CK67_MESR_CI_6KAvg_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_6KPea_10m</t>
   </si>
   <si>
     <t>CK67_W_CI_6KPeaReason_evt</t>
@@ -320,10 +322,10 @@
     <t>CK67_W_CI_6KPeaSolution_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_7KAvg_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_7KPea_10m_evt</t>
+    <t>CK67_MESR_CI_7KAvg_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_7KPea_10m</t>
   </si>
   <si>
     <t>CK67_W_CI_7KPeaReason_evt</t>
@@ -332,63 +334,63 @@
     <t>CK67_W_CI_7KPeaSolution_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_K1_10m_evt</t>
+    <t>CK67_MESR_CI_K1_10m</t>
   </si>
   <si>
     <t>CK67_W_CI_K1Reason_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_K2_10m_evt</t>
+    <t>CK67_MESR_CI_K2_10m</t>
   </si>
   <si>
     <t>CK67_W_CI_K2Reason_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_K3_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_NCP_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_NCA_10m_evt</t>
+    <t>CK67_MESR_CI_K3_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_NCP_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_NCA_10m</t>
   </si>
   <si>
     <t>CK67_W_CI_SingleYield_evt</t>
   </si>
   <si>
-    <t>CK67_MESR_CI_SFCA_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_TSFCA_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_CTAvg_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_CTL_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_CTS_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_CM_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_Vdaf_10m_evt</t>
-  </si>
-  <si>
-    <t>CK67_MESR_CI_CC_10m_evt</t>
+    <t>CK67_MESR_CI_SFCA_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_TSFCA_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_CTAvg_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_CTL_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_CTS_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_CM_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_Vdaf_10m</t>
+  </si>
+  <si>
+    <t>CK67_MESR_CI_CC_10m</t>
   </si>
   <si>
     <t>夜</t>
   </si>
   <si>
+    <t>白</t>
+  </si>
+  <si>
     <t>中</t>
   </si>
   <si>
-    <t>白</t>
-  </si>
-  <si>
     <t>日平均</t>
   </si>
   <si>
@@ -420,6 +422,33 @@
   </si>
   <si>
     <t>公式</t>
+  </si>
+  <si>
+    <t>cogCalorificvalue</t>
+  </si>
+  <si>
+    <t>blastfurnaceCalorificvalue</t>
+  </si>
+  <si>
+    <t>oneholeTheoryProduction</t>
+  </si>
+  <si>
+    <t>sixKReason</t>
+  </si>
+  <si>
+    <t>sixKImprove</t>
+  </si>
+  <si>
+    <t>sevenKReason</t>
+  </si>
+  <si>
+    <t>sevenKImprove</t>
+  </si>
+  <si>
+    <t>k1Reason</t>
+  </si>
+  <si>
+    <t>k2KReason</t>
   </si>
 </sst>
 </file>
@@ -427,14 +456,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +472,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9876AA"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -450,6 +491,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
@@ -509,9 +555,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -522,6 +577,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -530,6 +674,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -538,65 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -605,62 +697,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -684,7 +725,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,31 +815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +845,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,115 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,6 +934,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -984,21 +1040,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1031,11 +1072,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,11 +1104,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,24 +1128,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,16 +1151,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,149 +1178,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1288,43 +1334,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,67 +1379,64 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,7 +1750,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2103,819 +2146,1035 @@
   <sheetPr/>
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="6.125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="7.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="3" customWidth="1"/>
+    <col min="3" max="12" width="6.125" style="3" customWidth="1"/>
+    <col min="13" max="16" width="7.5" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:34">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" ht="21" spans="1:34">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25.5" customHeight="1" spans="1:40">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" s="3" customFormat="1" ht="25.5" customHeight="1" spans="1:40">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="21" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AN2" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="36" spans="1:40">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+    <row r="3" s="3" customFormat="1" ht="36" spans="1:40">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="11" t="s">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="11" t="s">
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="39"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="42"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="56.25" spans="1:40">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="6" customFormat="1" ht="56.25" spans="1:40">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="e">
+      <c r="E4" s="4" t="e">
         <f t="shared" ref="E4:E7" si="0">(C4*K4+D4*L4)/10^6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="e">
+      <c r="H4" s="4" t="e">
         <f t="shared" ref="H4:H7" si="1">(F4*K4+G4*L4)/10^6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="2" t="e">
+      <c r="I4" s="4" t="e">
         <f t="shared" ref="I4:I7" si="2">C4+F4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="2" t="e">
+      <c r="J4" s="4" t="e">
         <f t="shared" ref="J4:J7" si="3">D4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="2" t="e">
+      <c r="M4" s="4" t="e">
         <f t="shared" ref="M4:M7" si="4">(E4+H4)/AH4*1000-31*(AL4-7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="2" t="e">
+      <c r="N4" s="4" t="e">
         <f t="shared" ref="N4:N7" si="5">(E4+H4)/AD4/AE4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O4" s="2" t="e">
+      <c r="O4" s="4" t="e">
         <f t="shared" ref="O4:O7" si="6">I4/J4*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="35" t="s">
+      <c r="AE4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="31" t="e">
+      <c r="AF4" s="34" t="e">
         <f>AE4*AD4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AM4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="40" t="s">
+      <c r="AN4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:40">
-      <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:40">
+      <c r="A5" s="8"/>
+      <c r="B5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A2="","",_lianjaorb_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B2="","",_lianjaorb_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="E5" s="15" t="e">
+      <c r="E5" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C2="","",_lianjaorb_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D2="","",_lianjaorb_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="H5" s="15" t="e">
+      <c r="H5" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="15" t="e">
+      <c r="J5" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="e">
+      <c r="K5" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!A2="","",_kjjunzhi_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!B2="","",_kjjunzhi_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="M5" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N5" s="15" t="e">
+      <c r="N5" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O5" s="15" t="e">
+      <c r="O5" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="41"/>
+      <c r="P5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E2="","",_lianjaorb_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F2="","",_lianjaorb_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="R5" s="18" t="str">
+        <f>IF(_causek_day_shift!A2="","",_causek_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="S5" s="18" t="str">
+        <f>IF(_causek_day_shift!B2="","",_causek_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="T5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G2="","",_lianjaorb_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="U5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H2="","",_lianjaorb_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="V5" s="18" t="str">
+        <f>IF(_causek_day_shift!C2="","",_causek_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="W5" s="18" t="str">
+        <f>IF(_causek_day_shift!D2="","",_causek_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="X5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I2="","",_lianjaorb_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="Y5" s="18" t="str">
+        <f>IF(_causek_day_shift!E2="","",_causek_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="Z5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J2="","",_lianjaorb_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="18" t="str">
+        <f>IF(_causek_day_shift!F2="","",_causek_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="AB5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K2="","",_lianjaorb_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="AC5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L2="","",_lianjaorb_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="AD5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M2="","",_lianjaorb_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="AE5" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!C2="","",_kjjunzhi_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N2="","",_lianjaorb_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="AH5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O2="","",_lianjaorb_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="AI5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P2="","",_lianjaorb_day_shift!P2)</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q2="","",_lianjaorb_day_shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="AK5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R2="","",_lianjaorb_day_shift!R2)</f>
+        <v/>
+      </c>
+      <c r="AL5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S2="","",_lianjaorb_day_shift!S2)</f>
+        <v/>
+      </c>
+      <c r="AM5" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T2="","",_lianjaorb_day_shift!T2)</f>
+        <v/>
+      </c>
+      <c r="AN5" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U2="","",_lianjaorb_day_shift!U2)</f>
+        <v/>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:40">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:40">
+      <c r="A6" s="8"/>
+      <c r="B6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A3="","",_lianjaorb_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B3="","",_lianjaorb_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="E6" s="15" t="e">
+      <c r="E6" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!C3="","",_lianjaorb_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D3="","",_lianjaorb_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="H6" s="15" t="e">
+      <c r="H6" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="15" t="e">
+      <c r="J6" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="e">
+      <c r="K6" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!A3="","",_kjjunzhi_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!B3="","",_kjjunzhi_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="M6" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N6" s="15" t="e">
+      <c r="N6" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="15" t="e">
+      <c r="O6" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="41"/>
+      <c r="P6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E3="","",_lianjaorb_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F3="","",_lianjaorb_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="R6" s="18" t="str">
+        <f>IF(_causek_day_shift!A3="","",_causek_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="S6" s="18" t="str">
+        <f>IF(_causek_day_shift!B3="","",_causek_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="T6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G3="","",_lianjaorb_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="U6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H3="","",_lianjaorb_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="V6" s="18" t="str">
+        <f>IF(_causek_day_shift!C3="","",_causek_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="W6" s="18" t="str">
+        <f>IF(_causek_day_shift!D3="","",_causek_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="X6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I3="","",_lianjaorb_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="Y6" s="18" t="str">
+        <f>IF(_causek_day_shift!E3="","",_causek_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Z6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J3="","",_lianjaorb_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="18" t="str">
+        <f>IF(_causek_day_shift!F3="","",_causek_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="AB6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K3="","",_lianjaorb_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="AC6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L3="","",_lianjaorb_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="AD6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M3="","",_lianjaorb_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="AE6" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!C3="","",_kjjunzhi_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N3="","",_lianjaorb_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="AH6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O3="","",_lianjaorb_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="AI6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P3="","",_lianjaorb_day_shift!P3)</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q3="","",_lianjaorb_day_shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="AK6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R3="","",_lianjaorb_day_shift!R3)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S3="","",_lianjaorb_day_shift!S3)</f>
+        <v/>
+      </c>
+      <c r="AM6" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T3="","",_lianjaorb_day_shift!T3)</f>
+        <v/>
+      </c>
+      <c r="AN6" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U3="","",_lianjaorb_day_shift!U3)</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:40">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:40">
+      <c r="A7" s="8"/>
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!A4="","",_lianjaorb_day_shift!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="15" t="str">
+      <c r="D7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!B4="","",_lianjaorb_day_shift!B4)</f>
         <v/>
       </c>
-      <c r="E7" s="15" t="e">
+      <c r="E7" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(_lianjaorb_day_shift!C4="","",_lianjaorb_day_shift!C4)</f>
         <v/>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(_lianjaorb_day_shift!D4="","",_lianjaorb_day_shift!D4)</f>
         <v/>
       </c>
-      <c r="H7" s="15" t="e">
+      <c r="H7" s="18" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="15" t="e">
+      <c r="J7" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15" t="e">
+      <c r="K7" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!A4="","",_kjjunzhi_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!B4="","",_kjjunzhi_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="M7" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="15" t="e">
+      <c r="N7" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O7" s="15" t="e">
+      <c r="O7" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="41"/>
+      <c r="P7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!E4="","",_lianjaorb_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!F4="","",_lianjaorb_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="R7" s="18" t="str">
+        <f>IF(_causek_day_shift!A4="","",_causek_day_shift!A4)</f>
+        <v/>
+      </c>
+      <c r="S7" s="18" t="str">
+        <f>IF(_causek_day_shift!B4="","",_causek_day_shift!B4)</f>
+        <v/>
+      </c>
+      <c r="T7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!G4="","",_lianjaorb_day_shift!G4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!H4="","",_lianjaorb_day_shift!H4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="18" t="str">
+        <f>IF(_causek_day_shift!C4="","",_causek_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="W7" s="18" t="str">
+        <f>IF(_causek_day_shift!D4="","",_causek_day_shift!D4)</f>
+        <v/>
+      </c>
+      <c r="X7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!I4="","",_lianjaorb_day_shift!I4)</f>
+        <v/>
+      </c>
+      <c r="Y7" s="18" t="str">
+        <f>IF(_causek_day_shift!E4="","",_causek_day_shift!E4)</f>
+        <v/>
+      </c>
+      <c r="Z7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!J4="","",_lianjaorb_day_shift!J4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="18" t="str">
+        <f>IF(_causek_day_shift!F4="","",_causek_day_shift!F4)</f>
+        <v/>
+      </c>
+      <c r="AB7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!K4="","",_lianjaorb_day_shift!K4)</f>
+        <v/>
+      </c>
+      <c r="AC7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!L4="","",_lianjaorb_day_shift!L4)</f>
+        <v/>
+      </c>
+      <c r="AD7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!M4="","",_lianjaorb_day_shift!M4)</f>
+        <v/>
+      </c>
+      <c r="AE7" s="18" t="str">
+        <f>IF(_kjjunzhi_day_shift!C4="","",_kjjunzhi_day_shift!C4)</f>
+        <v/>
+      </c>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!N4="","",_lianjaorb_day_shift!N4)</f>
+        <v/>
+      </c>
+      <c r="AH7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!O4="","",_lianjaorb_day_shift!O4)</f>
+        <v/>
+      </c>
+      <c r="AI7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!P4="","",_lianjaorb_day_shift!P4)</f>
+        <v/>
+      </c>
+      <c r="AJ7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!Q4="","",_lianjaorb_day_shift!Q4)</f>
+        <v/>
+      </c>
+      <c r="AK7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!R4="","",_lianjaorb_day_shift!R4)</f>
+        <v/>
+      </c>
+      <c r="AL7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!S4="","",_lianjaorb_day_shift!S4)</f>
+        <v/>
+      </c>
+      <c r="AM7" s="18" t="str">
+        <f>IF(_lianjaorb_day_shift!T4="","",_lianjaorb_day_shift!T4)</f>
+        <v/>
+      </c>
+      <c r="AN7" s="43" t="str">
+        <f>IF(_lianjaorb_day_shift!U4="","",_lianjaorb_day_shift!U4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="21">
         <f t="shared" ref="C8:O8" si="7">SUM(C5:C7)/3</f>
         <v>0</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="e">
+      <c r="E8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="e">
+      <c r="H8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="18" t="e">
+      <c r="I8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="18" t="e">
+      <c r="J8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M8" s="18" t="e">
+      <c r="M8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="18" t="e">
+      <c r="N8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O8" s="18" t="e">
+      <c r="O8" s="21" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="42"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="44"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+    <row r="9" s="3" customFormat="1" spans="1:2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+    <row r="13" s="3" customFormat="1" spans="1:2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
     </row>
-    <row r="14" s="4" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
-      <c r="A14" s="20" t="s">
+    <row r="14" s="7" customFormat="1" ht="39.6" customHeight="1" spans="1:32">
+      <c r="A14" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="23"/>
+      <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="7">
         <v>17300</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="7">
         <v>3350</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="AF14" s="4" t="s">
+      <c r="AF14" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="23.45" customHeight="1" spans="1:32">
-      <c r="A15" s="20" t="s">
+    <row r="15" s="3" customFormat="1" ht="23.45" customHeight="1" spans="1:32">
+      <c r="A15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="B15" s="23"/>
+      <c r="E15" s="3">
         <f>(C15*K15+D15*L15)/10^6</f>
         <v>0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f>(F15*K15+G15*L15)/10^6</f>
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <f>C15+F15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <f>D15+G15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="e">
+      <c r="M15" s="3" t="e">
         <f>(E15+H15)/AH15*1000-31*(AL15-7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="1" t="e">
+      <c r="N15" s="3" t="e">
         <f>(E15+H15)/AD15/AE15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="1" t="e">
+      <c r="O15" s="3" t="e">
         <f>I15/J15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="3">
         <f>AE15*AD15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="81" spans="1:32">
-      <c r="A16" s="20" t="s">
+    <row r="16" s="7" customFormat="1" ht="81" spans="1:32">
+      <c r="A16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="str">
+      <c r="B16" s="23"/>
+      <c r="E16" s="7" t="str">
         <f t="shared" ref="E16:J16" si="8">_xlfn.FORMULATEXT(E15)</f>
         <v>=(C15*K15+D15*L15)/10^6</v>
       </c>
-      <c r="H16" s="4" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=(F15*K15+G15*L15)/10^6</v>
       </c>
-      <c r="I16" s="4" t="str">
+      <c r="I16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=C15+F15</v>
       </c>
-      <c r="J16" s="4" t="str">
+      <c r="J16" s="7" t="str">
         <f t="shared" si="8"/>
         <v>=D15+G15</v>
       </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="7" t="str">
         <f t="shared" ref="M16:O16" si="9">_xlfn.FORMULATEXT(M15)</f>
         <v>=(E15+H15)/AH15*1000-31*(AL15-7)</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="N16" s="7" t="str">
         <f t="shared" si="9"/>
         <v>=(E15+H15)/AD15/AE15</v>
       </c>
-      <c r="O16" s="4" t="str">
+      <c r="O16" s="7" t="str">
         <f t="shared" si="9"/>
         <v>=I15/J15*100</v>
       </c>
-      <c r="AF16" s="4" t="str">
+      <c r="AF16" s="7" t="str">
         <f>_xlfn.FORMULATEXT(AF15)</f>
         <v>=AE15*AD15</v>
       </c>
@@ -2950,7 +3209,7 @@
     <mergeCell ref="AN2:AN3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S4 V4:W4 R5:R15 V5:V8 Y5:Y8 AA5:AA8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:S4 V4:W4 R5 S5 V5 W5 Y5 AA5 R6 S6 V6 W6 Y6 AA6 R7 S7 V7 W7 Y7 AA7 R8 S8 V8 Y8 AA8 R9:R15">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2963,29 +3222,148 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="45" spans="1:21">
+      <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
